--- a/questionnaires/RBDstandardized_questionnaireMDDW.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireMDDW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34A118-81E1-473B-A600-5383F03545F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228EA4DF-5162-489F-9E4C-9313B9FEC361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45570" yWindow="-1485" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -279,9 +279,6 @@
     <t>Age en années révolues de ${MDDW_resp_age}</t>
   </si>
   <si>
-    <t>Quel est le nombre total de membres féminins âgés de 18 à 59 ans dans votre ménage ?</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>Francais</t>
+  </si>
+  <si>
+    <t>Quel est le nombre total de membres féminins âgés de 15 à 59 ans dans votre ménage ?</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1580,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1649,11 +1649,11 @@
         <v>71</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="66"/>
@@ -1700,7 +1700,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>78</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="70" t="s">
         <v>58</v>
@@ -1769,10 +1769,10 @@
         <v>60</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,13 +1783,13 @@
         <v>24</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,13 +1800,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,13 +1817,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="72"/>
       <c r="J13" s="69"/>
@@ -1836,13 +1836,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="69"/>
       <c r="J14" s="72"/>
@@ -1855,13 +1855,13 @@
         <v>37</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="69"/>
       <c r="J15" s="72"/>
@@ -1874,13 +1874,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="67" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,13 +1891,13 @@
         <v>32</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="72"/>
       <c r="J17" s="69"/>
@@ -1913,10 +1913,10 @@
         <v>47</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="69"/>
       <c r="J18" s="72"/>
@@ -1929,13 +1929,13 @@
         <v>33</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="69"/>
       <c r="J19" s="72"/>
@@ -1948,13 +1948,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="71"/>
     </row>
@@ -1966,13 +1966,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="71"/>
     </row>
@@ -1984,13 +1984,13 @@
         <v>29</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,13 +2001,13 @@
         <v>28</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,13 +2018,13 @@
         <v>30</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="67" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2035,13 +2035,13 @@
         <v>38</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="72"/>
       <c r="J25" s="69"/>
@@ -2054,13 +2054,13 @@
         <v>39</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="69"/>
       <c r="J26" s="72"/>
@@ -2073,13 +2073,13 @@
         <v>44</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="69"/>
       <c r="J27" s="72"/>
@@ -2111,7 +2111,7 @@
         <v>61</v>
       </c>
       <c r="E29" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="72"/>
       <c r="J29" s="72"/>
@@ -2127,7 +2127,7 @@
         <v>62</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="71"/>
       <c r="J30" s="71"/>
@@ -2143,7 +2143,7 @@
         <v>63</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" s="71"/>
     </row>
@@ -2158,7 +2158,7 @@
         <v>64</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J32" s="71"/>
     </row>
@@ -2173,7 +2173,7 @@
         <v>65</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="71"/>
       <c r="J33" s="71"/>
@@ -2189,7 +2189,7 @@
         <v>66</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" s="71"/>
     </row>
@@ -5271,7 +5271,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5293,6 +5293,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5509,15 +5518,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5525,6 +5525,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5539,14 +5547,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
